--- a/data/trans_media/dukeCONF-Edad-trans_media.xlsx
+++ b/data/trans_media/dukeCONF-Edad-trans_media.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>85,21; 87,84</t>
+          <t>85,21; 87,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>86,92; 89,69</t>
+          <t>86,94; 89,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>83,46; 86,17</t>
+          <t>83,52; 86,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>89,38; 93,62</t>
+          <t>89,96; 93,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>83,81; 86,91</t>
+          <t>83,87; 86,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,99; 88,69</t>
+          <t>85,96; 88,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>84,27; 86,92</t>
+          <t>84,28; 87,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>85,47; 91,37</t>
+          <t>85,99; 91,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>84,91; 87,02</t>
+          <t>84,9; 87,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>86,87; 88,83</t>
+          <t>86,88; 88,76</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>84,38; 86,17</t>
+          <t>84,4; 86,25</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>88,71; 92,11</t>
+          <t>88,66; 92,21</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,88; 87,2</t>
+          <t>84,86; 87,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>85,17; 87,73</t>
+          <t>85,24; 87,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,26; 84,6</t>
+          <t>82,16; 84,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>85,01; 88,92</t>
+          <t>84,74; 88,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>81,99; 84,91</t>
+          <t>81,87; 84,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>83,18; 85,85</t>
+          <t>83,17; 85,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>83,32; 85,44</t>
+          <t>83,28; 85,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>86,38; 89,83</t>
+          <t>86,46; 89,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>83,97; 85,77</t>
+          <t>83,99; 85,96</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>84,59; 86,45</t>
+          <t>84,51; 86,4</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>83,06; 84,67</t>
+          <t>83,07; 84,71</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>86,1; 88,79</t>
+          <t>86,48; 88,85</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>80,35; 83,46</t>
+          <t>80,15; 83,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>82,17; 84,99</t>
+          <t>82,11; 85,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>80,86; 83,31</t>
+          <t>80,97; 83,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>83,49; 86,55</t>
+          <t>83,43; 86,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>80,73; 83,53</t>
+          <t>80,82; 83,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>81,71; 84,4</t>
+          <t>81,67; 84,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>80,98; 83,53</t>
+          <t>81,06; 83,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>85,13; 87,36</t>
+          <t>85,19; 87,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>81,01; 83,15</t>
+          <t>81,05; 83,1</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>82,43; 84,29</t>
+          <t>82,4; 84,42</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>81,4; 83,11</t>
+          <t>81,37; 83,13</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>84,78; 86,64</t>
+          <t>84,78; 86,79</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>79,68; 82,93</t>
+          <t>79,57; 82,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82,12; 85,07</t>
+          <t>82,07; 85,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>76,93; 80,13</t>
+          <t>76,84; 80,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>82,81; 87,95</t>
+          <t>82,8; 88,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>77,4; 80,87</t>
+          <t>77,22; 80,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>78,98; 81,99</t>
+          <t>79,1; 82,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>78,42; 81,13</t>
+          <t>78,59; 81,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>82,76; 85,11</t>
+          <t>82,73; 85,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>79,02; 81,51</t>
+          <t>79,12; 81,5</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>81,13; 83,28</t>
+          <t>81,02; 83,08</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>78,14; 80,13</t>
+          <t>78,14; 80,16</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>83,28; 86,22</t>
+          <t>83,17; 86,02</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>77,91; 82,09</t>
+          <t>77,79; 81,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>82,54; 86,25</t>
+          <t>82,72; 86,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>77,28; 80,73</t>
+          <t>77,41; 80,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>79,14; 82,34</t>
+          <t>79,28; 82,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>74,3; 78,17</t>
+          <t>74,2; 78,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>78,48; 82,26</t>
+          <t>78,28; 82,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>75,18; 78,71</t>
+          <t>75,2; 78,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>78,23; 80,81</t>
+          <t>78,06; 80,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>76,68; 79,46</t>
+          <t>76,78; 79,52</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>81,14; 83,75</t>
+          <t>80,89; 83,51</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>76,86; 79,22</t>
+          <t>76,84; 79,25</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>79,11; 81,15</t>
+          <t>79,08; 81,22</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>74,05; 77,67</t>
+          <t>74,12; 77,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>77,46; 81,01</t>
+          <t>77,41; 81,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>76,93; 79,84</t>
+          <t>77,02; 79,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>78,5; 81,07</t>
+          <t>78,38; 81,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>70,83; 74,42</t>
+          <t>70,69; 74,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>77,59; 80,38</t>
+          <t>77,47; 80,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>73,08; 76,1</t>
+          <t>73,01; 76,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>75,98; 78,35</t>
+          <t>76,2; 78,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>72,69; 75,22</t>
+          <t>72,63; 75,24</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>78,01; 80,15</t>
+          <t>77,93; 80,1</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>75,25; 77,24</t>
+          <t>75,24; 77,39</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>77,46; 79,2</t>
+          <t>77,54; 79,19</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>81,71; 82,99</t>
+          <t>81,68; 82,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>83,61; 84,88</t>
+          <t>83,6; 84,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>80,32; 81,5</t>
+          <t>80,28; 81,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>83,45; 85,06</t>
+          <t>83,49; 85,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>79,08; 80,46</t>
+          <t>79,1; 80,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>81,62; 82,86</t>
+          <t>81,6; 82,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>79,56; 80,69</t>
+          <t>79,64; 80,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>82,45; 83,6</t>
+          <t>82,44; 83,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>80,55; 81,5</t>
+          <t>80,51; 81,5</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>82,79; 83,66</t>
+          <t>82,78; 83,65</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>80,13; 80,95</t>
+          <t>80,17; 80,98</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>83,09; 84,07</t>
+          <t>83,08; 84,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/dukeCONF-Edad-trans_media.xlsx
+++ b/data/trans_media/dukeCONF-Edad-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>85,21; 87,9</t>
+          <t>85,24; 87,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>86,94; 89,62</t>
+          <t>86,89; 89,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>83,52; 86,25</t>
+          <t>83,46; 86,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>83,87; 86,77</t>
+          <t>83,82; 86,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,96; 88,76</t>
+          <t>85,95; 88,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>84,28; 87,07</t>
+          <t>84,3; 86,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>84,9; 87,01</t>
+          <t>84,89; 86,97</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>86,88; 88,76</t>
+          <t>86,96; 88,89</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>84,4; 86,25</t>
+          <t>84,38; 86,27</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,86; 87,34</t>
+          <t>84,91; 87,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>85,24; 87,71</t>
+          <t>85,28; 87,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,16; 84,56</t>
+          <t>82,15; 84,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>81,87; 84,93</t>
+          <t>81,68; 84,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>83,17; 85,84</t>
+          <t>83,04; 85,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>83,28; 85,39</t>
+          <t>83,33; 85,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>83,99; 85,96</t>
+          <t>83,93; 85,86</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>84,51; 86,4</t>
+          <t>84,71; 86,57</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>83,07; 84,71</t>
+          <t>83,11; 84,74</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>80,15; 83,45</t>
+          <t>80,25; 83,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>82,11; 85,08</t>
+          <t>82,37; 85,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>80,97; 83,42</t>
+          <t>80,95; 83,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>80,82; 83,65</t>
+          <t>80,77; 83,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>81,67; 84,36</t>
+          <t>81,62; 84,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>81,06; 83,53</t>
+          <t>81,05; 83,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>81,05; 83,1</t>
+          <t>81,1; 83,13</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>82,4; 84,42</t>
+          <t>82,44; 84,41</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>81,37; 83,13</t>
+          <t>81,39; 83,09</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>79,57; 82,89</t>
+          <t>79,69; 82,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82,07; 85,0</t>
+          <t>82,23; 85,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>76,84; 80,02</t>
+          <t>76,81; 80,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>77,22; 80,92</t>
+          <t>77,45; 80,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>79,1; 82,2</t>
+          <t>79,05; 82,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>78,59; 81,18</t>
+          <t>78,55; 81,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>79,12; 81,5</t>
+          <t>79,08; 81,5</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>81,02; 83,08</t>
+          <t>80,98; 83,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>78,14; 80,16</t>
+          <t>78,19; 80,24</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>77,79; 81,98</t>
+          <t>78,1; 82,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>82,72; 86,07</t>
+          <t>82,69; 86,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>77,41; 80,7</t>
+          <t>77,5; 80,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>74,2; 78,38</t>
+          <t>74,2; 78,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>78,28; 82,09</t>
+          <t>78,4; 82,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>75,2; 78,7</t>
+          <t>75,1; 78,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>76,78; 79,52</t>
+          <t>76,79; 79,47</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>80,89; 83,51</t>
+          <t>81,01; 83,66</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>76,84; 79,25</t>
+          <t>76,9; 79,17</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>74,12; 77,75</t>
+          <t>73,87; 77,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>77,41; 81,0</t>
+          <t>77,32; 80,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>77,02; 79,77</t>
+          <t>77,14; 79,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>70,69; 74,37</t>
+          <t>70,74; 74,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>77,47; 80,31</t>
+          <t>77,54; 80,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>73,01; 76,08</t>
+          <t>73,11; 76,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>72,63; 75,24</t>
+          <t>72,64; 75,32</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>77,93; 80,1</t>
+          <t>77,91; 80,14</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>75,24; 77,39</t>
+          <t>75,15; 77,27</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>81,68; 82,99</t>
+          <t>81,7; 83,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>83,6; 84,86</t>
+          <t>83,63; 84,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>80,28; 81,51</t>
+          <t>80,42; 81,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>79,1; 80,47</t>
+          <t>79,08; 80,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>81,6; 82,86</t>
+          <t>81,57; 82,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>79,64; 80,74</t>
+          <t>79,53; 80,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>80,51; 81,5</t>
+          <t>80,56; 81,52</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>82,78; 83,65</t>
+          <t>82,77; 83,68</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>80,17; 80,98</t>
+          <t>80,16; 80,97</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
